--- a/bin/core/taskdata.xlsx
+++ b/bin/core/taskdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarathSarika\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olakka\Dropbox\_ProjectMagPy\MagPy\bin\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -167,177 +167,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -646,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15:Z21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R2" t="s">
         <v>0</v>
@@ -2731,17 +2561,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M7:N11">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z26">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:Z26">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
